--- a/data/trans_dic/P55$nadie-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$nadie-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,17 +730,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,39</t>
+          <t>0,0; 41,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,87</t>
+          <t>0,0; 37,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,54</t>
+          <t>0,0; 13,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,12 +750,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,38</t>
+          <t>0,0; 17,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,15</t>
+          <t>0,0; 22,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,24 +770,24 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,01</t>
+          <t>0,0; 17,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,44</t>
+          <t>0,0; 17,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,81</t>
+          <t>0,0; 7,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,24</t>
+          <t>0,0; 39,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,73</t>
+          <t>0,0; 41,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,7 +885,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,71</t>
+          <t>0,0; 20,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -899,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,02</t>
+          <t>0,0; 8,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,66</t>
+          <t>0,0; 23,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,3</t>
+          <t>0,0; 19,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,14 +920,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,08</t>
+          <t>0,0; 5,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1019,12 +1020,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 23,25</t>
+          <t>4,27; 22,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,35</t>
+          <t>0,0; 13,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,17 +1035,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,28</t>
+          <t>0,0; 32,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 15,26</t>
+          <t>2,71; 15,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,32</t>
+          <t>0,0; 11,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,75</t>
+          <t>0,0; 15,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 15,14</t>
+          <t>4,87; 15,0</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 27,82</t>
+          <t>3,35; 27,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,14</t>
+          <t>0,0; 13,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,37</t>
+          <t>0,0; 21,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,66</t>
+          <t>0,0; 6,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 20,65</t>
+          <t>2,44; 21,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,44</t>
+          <t>0,0; 8,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,55</t>
+          <t>0,0; 14,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,3</t>
+          <t>0,0; 3,19</t>
         </is>
       </c>
     </row>
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 45,4</t>
+          <t>4,55; 44,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,34</t>
+          <t>0,0; 16,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,19 +1335,19 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 34,97</t>
+          <t>3,43; 35,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,25</t>
+          <t>0,0; 11,13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1439,12 +1440,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 14,1</t>
+          <t>1,37; 14,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,83</t>
+          <t>0,0; 24,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,17 +1455,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,23; 43,84</t>
+          <t>5,17; 43,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,69; 16,13</t>
+          <t>3,69; 16,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,99</t>
+          <t>0,0; 15,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,19 +1475,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 29,88</t>
+          <t>3,38; 28,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,29</t>
+          <t>3,68; 13,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 35,14</t>
+          <t>4,35; 33,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,48</t>
+          <t>0,0; 17,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,67</t>
+          <t>0,0; 19,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 24,91</t>
+          <t>2,97; 26,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,28</t>
+          <t>0,0; 17,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,96</t>
+          <t>0,0; 9,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 16,52</t>
+          <t>1,96; 17,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 13,48</t>
+          <t>2,37; 13,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 17,55</t>
+          <t>3,1; 17,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,02</t>
+          <t>0,0; 8,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 13,41</t>
+          <t>2,62; 14,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 13,74</t>
+          <t>3,75; 13,53</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,15</t>
+          <t>0,0; 18,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,8</t>
+          <t>0,0; 27,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,47 +1720,47 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,77</t>
+          <t>0,0; 23,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,82; 21,16</t>
+          <t>3,55; 22,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,29; 17,31</t>
+          <t>2,29; 19,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,32; 19,77</t>
+          <t>2,36; 18,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,11</t>
+          <t>1,81; 9,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,08; 16,17</t>
+          <t>3,95; 16,84</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 14,91</t>
+          <t>1,62; 15,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,65; 13,6</t>
+          <t>1,68; 14,34</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 9,74</t>
+          <t>2,24; 10,83</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,12; 11,31</t>
+          <t>2,18; 10,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,36; 10,78</t>
+          <t>1,4; 10,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 5,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,66</t>
+          <t>3,07; 8,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,19</t>
+          <t>3,88; 10,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,71</t>
+          <t>0,84; 4,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,65</t>
+          <t>5,07; 12,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,4</t>
+          <t>3,13; 6,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,15</t>
+          <t>3,85; 9,5</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,41</t>
+          <t>1,66; 5,28</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,27</t>
+          <t>4,04; 9,55</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,41</t>
+          <t>3,56; 6,46</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que no le ayuda nadie cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1699</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1624</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4884</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3392</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3730</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1919</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4942</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5596</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 940</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1889</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6881</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5746</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4347</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3316</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2876</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3316</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6465</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9720</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1605</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1536</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4659</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2073</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2389</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4734</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9225</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12672</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2181</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4103</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2846</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3345</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6191</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1634</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1942</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1472</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1097; 5902</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4859</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1940</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5551</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1206; 6992</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5203</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4947</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3421; 10532</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1688</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1556</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1126</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1068; 8860</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5130</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6368</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2434</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1106; 9583</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5116</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6413</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1673</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4083</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4083</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1355</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1862</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1303</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 891</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1848</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1099; 10657</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2669</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1711</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>999; 10335</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2685</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2127</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4791</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2721</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2127</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4791</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4017</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1706</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1905</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1492</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>332; 3477</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6742</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1210; 10121</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1166; 5301</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6907</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1978</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1295; 10817</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2050; 7440</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2704</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2049</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4424</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3615</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4753</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5483</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>5873</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>813; 6340</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5123</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5126</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>691; 6267</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7009</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4801</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1104; 9960</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1264; 7083</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1796; 10333</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6700</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2164; 12137</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2877; 10374</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>4865</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3420</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>4751</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>6845</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>4751</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6064</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5761</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1745</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 3926</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1690; 10479</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1073; 9114</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1314; 10484</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1064; 5475</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3159; 13483</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1094; 10295</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1349; 11529</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1697; 8204</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>6434</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>6292</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1853</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>8399</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>15212</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>6361</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>22159</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>14724</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>21647</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>12653</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>24011</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>23124</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2765; 13269</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2039; 14879</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>0; 6503</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>4824; 13738</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>8948; 23910</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2341; 12494</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>13564; 33523</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>10260; 21099</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>13766; 33965</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>7058; 22497</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>15700; 37119</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>17267; 31358</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>